--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_18.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>786152.7365577564</v>
+        <v>810424.5449642766</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.768411118</v>
+        <v>713587.7684111176</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15478922.45806426</v>
+        <v>15478922.45806425</v>
       </c>
     </row>
     <row r="9">
@@ -701,25 +701,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U2" t="n">
-        <v>102.3382270926889</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,22 +735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>65.05504153722165</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -795,13 +795,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -905,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>58.39471844666272</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1026,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>164.4624917799569</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>185.9169747726711</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1130,17 +1130,17 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.809496073036132</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,19 +1212,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>106.0311077711178</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,25 +1260,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>63.88882306452221</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>52.80910967349002</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
         <v>187.7594695105699</v>
@@ -1415,22 +1415,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>273.1385125388357</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1455,10 +1455,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>137.0282495084215</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
         <v>165.8272126914158</v>
@@ -1509,10 +1509,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>123.6842855943236</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>94.1200107839131</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
-        <v>21.3881647021493</v>
+        <v>96.06064116356411</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1616,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>187.7594695105699</v>
@@ -1655,19 +1655,19 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
-        <v>129.0632770397859</v>
+        <v>125.1785149016546</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>7.425224531301852</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,25 +1731,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>88.93004835708089</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>106.0890042129125</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1780,13 +1780,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>103.3249685652703</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1850,19 +1850,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>316.8227465503556</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>163.7233641567952</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,16 +1898,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1920,25 +1920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>4.038708418188148</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>78.54202280713804</v>
@@ -1968,28 +1968,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>28.74539087081399</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>12.83153396320682</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>261.4697023004216</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2078,19 +2078,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>85.67417889435382</v>
+        <v>122.1359927426592</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>98.11393932583515</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2211,10 +2211,10 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>60.63736633088316</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2223,7 +2223,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>160.0903419479084</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>145.6674229028286</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2318,22 +2318,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>88.64311979659145</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,19 +2369,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>89.98174747814556</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,19 +2394,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>41.20009895312886</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2445,13 +2445,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>122.3764210828385</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>38.97640474817491</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2527,16 +2527,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>39.19479062707025</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>70.62611983656755</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,13 +2600,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>99.98710681074657</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,22 +2631,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>106.3909561563548</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>75.88546014257555</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,22 +2679,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>160.0903419479084</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>106.0890042129122</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2789,19 +2789,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>104.1189927826352</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>62.51580823726223</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2852,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2868,19 +2868,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>0.5439382344022294</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>22.75016430710027</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>158.2525819861379</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3007,10 +3007,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>38.97640474817491</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>58.860482096134</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
-        <v>194.4372490238409</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,22 +3105,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>85.70573774545444</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>198.8939788055617</v>
@@ -3168,13 +3168,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>136.0464243514812</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.0890042129122</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>219.4103988718534</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>106.0890042129122</v>
       </c>
     </row>
     <row r="35">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3354,13 +3354,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>73.7015322399793</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0282495084215</v>
+        <v>35.02478361468049</v>
       </c>
       <c r="H36" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,19 +3393,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>38.97640474817491</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3475,16 +3475,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>39.19479062707042</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,10 +3503,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>82.20246860709963</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3557,16 +3557,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>51.12248649571896</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3585,19 +3585,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3633,19 +3633,19 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>198.8939788055617</v>
+        <v>100.4986967062094</v>
       </c>
       <c r="U39" t="n">
-        <v>140.514979870707</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>106.0890042129125</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>219.4103988718534</v>
+        <v>98.6831373954543</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3752,13 +3752,13 @@
         <v>405.7415719969023</v>
       </c>
       <c r="G41" t="n">
-        <v>400.6920118803606</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>17.95817021688012</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3819,22 +3819,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>42.28735054302958</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>56.33604574507298</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
         <v>78.54202280713804</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3882,10 +3882,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3898,19 +3898,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>11.33877089098633</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,19 +3974,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>30.96091120189156</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4022,13 +4022,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>163.463517370063</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4040,10 +4040,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>18.14375097088705</v>
       </c>
       <c r="H45" t="n">
-        <v>9.449648511047492</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,25 +4101,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4192,13 +4192,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>38.97640474817464</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4349,22 +4349,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="V2" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="V2" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="W2" t="n">
         <v>19.28114311021272</v>
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>567.6182002269572</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C3" t="n">
-        <v>393.1651709458303</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>244.230761284579</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>84.99330627912349</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>84.99330627912349</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
         <v>19.28114311021272</v>
@@ -4410,16 +4410,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4443,16 +4443,16 @@
         <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>735.8335372470253</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>735.8335372470253</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>735.8335372470253</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y3" t="n">
-        <v>735.8335372470253</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4507,31 +4507,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>90.33569644483418</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C5" t="n">
-        <v>90.33569644483418</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D5" t="n">
-        <v>90.33569644483418</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E5" t="n">
-        <v>90.33569644483418</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F5" t="n">
-        <v>90.33569644483418</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>577.2332497330343</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U5" t="n">
-        <v>333.7844730889342</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V5" t="n">
-        <v>90.33569644483418</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
-        <v>90.33569644483418</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X5" t="n">
-        <v>90.33569644483418</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y5" t="n">
-        <v>90.33569644483418</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>193.7341723913397</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F6" t="n">
         <v>19.28114311021272</v>
@@ -4647,22 +4647,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4674,22 +4674,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>797.9334264399727</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>569.7098081763618</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>569.7098081763618</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>569.7098081763618</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X6" t="n">
-        <v>569.7098081763618</v>
+        <v>532.8134548537371</v>
       </c>
       <c r="Y6" t="n">
-        <v>361.9495094114078</v>
+        <v>325.0531560887832</v>
       </c>
     </row>
     <row r="7">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C8" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>467.067986854209</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>467.067986854209</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y8" t="n">
-        <v>467.067986854209</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>756.2968567456824</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>581.8438274645554</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>432.9094178033041</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>273.6719627978486</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>127.1374048247336</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,16 +4887,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>383.2428491569326</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N9" t="n">
-        <v>621.8469951458151</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4908,25 +4908,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>726.1056462496665</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>497.8820279860555</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>685.2978623061788</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="C11" t="n">
-        <v>685.2978623061788</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="D11" t="n">
-        <v>685.2978623061788</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="E11" t="n">
-        <v>685.2978623061788</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="F11" t="n">
-        <v>685.2978623061788</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="G11" t="n">
-        <v>275.457890592136</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="H11" t="n">
         <v>222.1153555684087</v>
@@ -5039,16 +5039,16 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K11" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L11" t="n">
         <v>519.4894913528326</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
@@ -5063,28 +5063,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S11" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T11" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U11" t="n">
-        <v>1369.129404919863</v>
+        <v>834.8212426942232</v>
       </c>
       <c r="V11" t="n">
-        <v>1038.066517576293</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="W11" t="n">
-        <v>685.2978623061788</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="X11" t="n">
-        <v>685.2978623061788</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="Y11" t="n">
-        <v>685.2978623061788</v>
+        <v>558.9237552812579</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5094,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>666.272646544556</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="C12" t="n">
-        <v>666.272646544556</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="D12" t="n">
-        <v>666.272646544556</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="E12" t="n">
-        <v>507.0351915391004</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="F12" t="n">
         <v>360.5006335659854</v>
@@ -5118,52 +5118,52 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J12" t="n">
-        <v>61.20822116384403</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K12" t="n">
-        <v>236.9655055809357</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L12" t="n">
-        <v>534.6972605625989</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M12" t="n">
-        <v>546.7891136313477</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N12" t="n">
-        <v>948.4732699082811</v>
+        <v>1299.952780813051</v>
       </c>
       <c r="O12" t="n">
-        <v>1271.486777082839</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P12" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q12" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R12" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S12" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T12" t="n">
-        <v>1254.561044051268</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U12" t="n">
-        <v>1026.358376588747</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V12" t="n">
-        <v>791.2062683570041</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="W12" t="n">
-        <v>666.272646544556</v>
+        <v>455.571351529534</v>
       </c>
       <c r="X12" t="n">
-        <v>666.272646544556</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="Y12" t="n">
-        <v>666.272646544556</v>
+        <v>360.5006335659854</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J13" t="n">
         <v>32.45932575975219</v>
@@ -5221,28 +5221,28 @@
         <v>296.5701361642185</v>
       </c>
       <c r="R13" t="n">
-        <v>129.4902764300189</v>
+        <v>129.490276430019</v>
       </c>
       <c r="S13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="T13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="U13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1378.603698709343</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="C14" t="n">
-        <v>1378.603698709343</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="D14" t="n">
-        <v>1378.603698709343</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="E14" t="n">
-        <v>1378.603698709343</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="F14" t="n">
-        <v>968.7637269953007</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="G14" t="n">
-        <v>558.9237552812579</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H14" t="n">
         <v>222.1153555684087</v>
       </c>
       <c r="I14" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J14" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K14" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
@@ -5300,28 +5300,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1508.970645214178</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S14" t="n">
-        <v>1378.603698709343</v>
+        <v>1382.527700869072</v>
       </c>
       <c r="T14" t="n">
-        <v>1378.603698709343</v>
+        <v>1159.783781249839</v>
       </c>
       <c r="U14" t="n">
-        <v>1378.603698709343</v>
+        <v>905.9468981820935</v>
       </c>
       <c r="V14" t="n">
-        <v>1378.603698709343</v>
+        <v>574.8840108385228</v>
       </c>
       <c r="W14" t="n">
-        <v>1378.603698709343</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="X14" t="n">
-        <v>1378.603698709343</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="Y14" t="n">
-        <v>1378.603698709343</v>
+        <v>222.1153555684087</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>989.6600854869342</v>
+        <v>39.95955255904698</v>
       </c>
       <c r="C15" t="n">
-        <v>815.2070562058072</v>
+        <v>39.95955255904698</v>
       </c>
       <c r="D15" t="n">
-        <v>666.272646544556</v>
+        <v>39.95955255904698</v>
       </c>
       <c r="E15" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F15" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G15" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H15" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I15" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J15" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K15" t="n">
-        <v>236.9655055809357</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L15" t="n">
-        <v>534.6972605625989</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M15" t="n">
-        <v>656.0248753321104</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N15" t="n">
-        <v>1057.709031609044</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O15" t="n">
         <v>1380.722538783602</v>
@@ -5379,28 +5379,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R15" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S15" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T15" t="n">
-        <v>1455.464052945775</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U15" t="n">
-        <v>1455.464052945775</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V15" t="n">
-        <v>1455.464052945775</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W15" t="n">
-        <v>1455.464052945775</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="X15" t="n">
-        <v>1365.635721271956</v>
+        <v>247.7198513240009</v>
       </c>
       <c r="Y15" t="n">
-        <v>1157.875422507002</v>
+        <v>39.95955255904698</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="C16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H16" t="n">
-        <v>256.8779464865154</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
@@ -5461,25 +5461,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S16" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="T16" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="U16" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="V16" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="W16" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="X16" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="Y16" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758254</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1508.970645214177</v>
+        <v>197.8364612716666</v>
       </c>
       <c r="C17" t="n">
-        <v>1508.970645214177</v>
+        <v>197.8364612716666</v>
       </c>
       <c r="D17" t="n">
-        <v>1508.970645214177</v>
+        <v>197.8364612716666</v>
       </c>
       <c r="E17" t="n">
-        <v>1188.947668900687</v>
+        <v>197.8364612716666</v>
       </c>
       <c r="F17" t="n">
-        <v>779.107697186644</v>
+        <v>197.8364612716666</v>
       </c>
       <c r="G17" t="n">
-        <v>369.2677254726013</v>
+        <v>197.8364612716666</v>
       </c>
       <c r="H17" t="n">
-        <v>32.45932575975218</v>
+        <v>197.8364612716666</v>
       </c>
       <c r="I17" t="n">
         <v>32.45932575975218</v>
@@ -5522,7 +5522,7 @@
         <v>519.4894913528324</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
@@ -5546,19 +5546,19 @@
         <v>1508.970645214177</v>
       </c>
       <c r="U17" t="n">
-        <v>1508.970645214177</v>
+        <v>1255.133762146431</v>
       </c>
       <c r="V17" t="n">
-        <v>1508.970645214177</v>
+        <v>924.0708748028607</v>
       </c>
       <c r="W17" t="n">
-        <v>1508.970645214177</v>
+        <v>571.3022195327464</v>
       </c>
       <c r="X17" t="n">
-        <v>1508.970645214177</v>
+        <v>197.8364612716666</v>
       </c>
       <c r="Y17" t="n">
-        <v>1508.970645214177</v>
+        <v>197.8364612716666</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>989.6600854869342</v>
+        <v>271.0321573380744</v>
       </c>
       <c r="C18" t="n">
-        <v>815.2070562058072</v>
+        <v>271.0321573380744</v>
       </c>
       <c r="D18" t="n">
-        <v>666.272646544556</v>
+        <v>271.0321573380744</v>
       </c>
       <c r="E18" t="n">
-        <v>507.0351915391004</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="F18" t="n">
-        <v>360.5006335659854</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="G18" t="n">
-        <v>222.0882603251556</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H18" t="n">
         <v>111.7947023326189</v>
@@ -5592,19 +5592,19 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J18" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K18" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L18" t="n">
-        <v>236.9655055809357</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M18" t="n">
-        <v>636.3836421851986</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N18" t="n">
-        <v>948.4732699082806</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O18" t="n">
         <v>1271.486777082839</v>
@@ -5616,28 +5616,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
-        <v>1593.930539633252</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S18" t="n">
-        <v>1593.930539633252</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T18" t="n">
-        <v>1393.027530738745</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U18" t="n">
-        <v>1393.027530738745</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V18" t="n">
-        <v>1157.875422507002</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="W18" t="n">
-        <v>1157.875422507002</v>
+        <v>690.7234597612764</v>
       </c>
       <c r="X18" t="n">
-        <v>1157.875422507002</v>
+        <v>482.8719595557436</v>
       </c>
       <c r="Y18" t="n">
-        <v>1157.875422507002</v>
+        <v>275.1116607907897</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C19" t="n">
-        <v>32.45932575975218</v>
+        <v>192.3104186750432</v>
       </c>
       <c r="D19" t="n">
-        <v>32.45932575975218</v>
+        <v>192.3104186750432</v>
       </c>
       <c r="E19" t="n">
-        <v>32.45932575975218</v>
+        <v>192.3104186750432</v>
       </c>
       <c r="F19" t="n">
-        <v>32.45932575975218</v>
+        <v>45.42047117713281</v>
       </c>
       <c r="G19" t="n">
         <v>32.45932575975218</v>
@@ -5692,31 +5692,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q19" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R19" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S19" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T19" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U19" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V19" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W19" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X19" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y19" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5726,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>759.6875413069145</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="C20" t="n">
-        <v>390.7250243665027</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="D20" t="n">
-        <v>32.45932575975219</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="E20" t="n">
-        <v>32.45932575975219</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F20" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G20" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H20" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I20" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K20" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5780,22 +5780,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T20" t="n">
-        <v>1536.426713346848</v>
+        <v>1499.596598348559</v>
       </c>
       <c r="U20" t="n">
-        <v>1536.426713346848</v>
+        <v>1499.596598348559</v>
       </c>
       <c r="V20" t="n">
-        <v>1536.426713346848</v>
+        <v>1168.533711004989</v>
       </c>
       <c r="W20" t="n">
-        <v>1536.426713346848</v>
+        <v>815.7650557348747</v>
       </c>
       <c r="X20" t="n">
-        <v>1536.426713346848</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="Y20" t="n">
-        <v>1146.287381371036</v>
+        <v>442.2992974737949</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>206.9123550408792</v>
+        <v>280.4987246390187</v>
       </c>
       <c r="C21" t="n">
-        <v>32.45932575975219</v>
+        <v>280.4987246390187</v>
       </c>
       <c r="D21" t="n">
-        <v>32.45932575975219</v>
+        <v>131.5643149777675</v>
       </c>
       <c r="E21" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F21" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G21" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H21" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I21" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J21" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K21" t="n">
-        <v>32.45932575975219</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L21" t="n">
-        <v>330.1910807414154</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M21" t="n">
-        <v>729.6092173456784</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N21" t="n">
-        <v>1131.293373622612</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O21" t="n">
-        <v>1454.30688079717</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P21" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q21" t="n">
         <v>1622.966287987609</v>
@@ -5859,22 +5859,22 @@
         <v>1374.066492846507</v>
       </c>
       <c r="T21" t="n">
-        <v>1173.163483952</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U21" t="n">
-        <v>1111.91361897131</v>
+        <v>1145.863825383985</v>
       </c>
       <c r="V21" t="n">
-        <v>876.7615107395675</v>
+        <v>910.7117171522423</v>
       </c>
       <c r="W21" t="n">
-        <v>622.5241540113659</v>
+        <v>656.4743604240407</v>
       </c>
       <c r="X21" t="n">
-        <v>414.6726538058331</v>
+        <v>656.4743604240407</v>
       </c>
       <c r="Y21" t="n">
-        <v>206.9123550408792</v>
+        <v>448.7140616590868</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K22" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L22" t="n">
         <v>107.0302722280248</v>
@@ -5932,28 +5932,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R22" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="S22" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="T22" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U22" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V22" t="n">
-        <v>214.1077905899919</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W22" t="n">
-        <v>214.1077905899919</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X22" t="n">
-        <v>214.1077905899919</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y22" t="n">
-        <v>214.1077905899919</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>531.8378023188368</v>
+        <v>1145.475793905159</v>
       </c>
       <c r="C23" t="n">
-        <v>531.8378023188368</v>
+        <v>776.5132769647469</v>
       </c>
       <c r="D23" t="n">
-        <v>531.8378023188368</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E23" t="n">
-        <v>531.8378023188368</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F23" t="n">
-        <v>531.8378023188368</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G23" t="n">
-        <v>121.997830604794</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H23" t="n">
         <v>32.45932575975218</v>
@@ -6017,22 +6017,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T23" t="n">
-        <v>1622.966287987609</v>
+        <v>1532.07563396928</v>
       </c>
       <c r="U23" t="n">
-        <v>1622.966287987609</v>
+        <v>1532.07563396928</v>
       </c>
       <c r="V23" t="n">
-        <v>1291.903400644038</v>
+        <v>1532.07563396928</v>
       </c>
       <c r="W23" t="n">
-        <v>1291.903400644038</v>
+        <v>1532.07563396928</v>
       </c>
       <c r="X23" t="n">
-        <v>918.4376423829585</v>
+        <v>1532.07563396928</v>
       </c>
       <c r="Y23" t="n">
-        <v>918.4376423829585</v>
+        <v>1532.07563396928</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>366.1498100463347</v>
+        <v>382.247451995276</v>
       </c>
       <c r="C24" t="n">
-        <v>191.6967807652077</v>
+        <v>382.247451995276</v>
       </c>
       <c r="D24" t="n">
-        <v>191.6967807652077</v>
+        <v>233.3130423340247</v>
       </c>
       <c r="E24" t="n">
-        <v>32.45932575975218</v>
+        <v>74.07558732856921</v>
       </c>
       <c r="F24" t="n">
         <v>32.45932575975218</v>
@@ -6066,22 +6066,22 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J24" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K24" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L24" t="n">
-        <v>330.1910807414154</v>
+        <v>256.6067387278473</v>
       </c>
       <c r="M24" t="n">
-        <v>729.6092173456783</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N24" t="n">
-        <v>1131.293373622612</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O24" t="n">
-        <v>1454.30688079717</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P24" t="n">
         <v>1622.966287987609</v>
@@ -6093,25 +6093,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S24" t="n">
-        <v>1499.353741439287</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T24" t="n">
-        <v>1499.353741439287</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="U24" t="n">
-        <v>1271.151073976766</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="V24" t="n">
-        <v>1035.998965745023</v>
+        <v>1220.311944714032</v>
       </c>
       <c r="W24" t="n">
-        <v>781.7616090168215</v>
+        <v>966.0745879858307</v>
       </c>
       <c r="X24" t="n">
-        <v>573.9101088112886</v>
+        <v>758.2230877802979</v>
       </c>
       <c r="Y24" t="n">
-        <v>366.1498100463347</v>
+        <v>550.462789015344</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>71.82943156598947</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="C25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="D25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="E25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="F25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="G25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K25" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L25" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M25" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N25" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O25" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T25" t="n">
-        <v>361.2466016029501</v>
+        <v>1583.375590384508</v>
       </c>
       <c r="U25" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="V25" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="W25" t="n">
-        <v>71.82943156598947</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="X25" t="n">
-        <v>71.82943156598947</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="Y25" t="n">
-        <v>71.82943156598947</v>
+        <v>1294.179012144411</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>472.7613576865958</v>
+        <v>1210.404967794588</v>
       </c>
       <c r="C26" t="n">
-        <v>103.7988407461841</v>
+        <v>1210.404967794588</v>
       </c>
       <c r="D26" t="n">
-        <v>32.45932575975218</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="E26" t="n">
-        <v>32.45932575975218</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F26" t="n">
-        <v>32.45932575975218</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G26" t="n">
         <v>32.45932575975218</v>
@@ -6248,28 +6248,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R26" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S26" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T26" t="n">
-        <v>1622.966287987609</v>
+        <v>1210.404967794588</v>
       </c>
       <c r="U26" t="n">
-        <v>1622.966287987609</v>
+        <v>1210.404967794588</v>
       </c>
       <c r="V26" t="n">
-        <v>1622.966287987609</v>
+        <v>1210.404967794588</v>
       </c>
       <c r="W26" t="n">
-        <v>1622.966287987609</v>
+        <v>1210.404967794588</v>
       </c>
       <c r="X26" t="n">
-        <v>1249.500529726529</v>
+        <v>1210.404967794588</v>
       </c>
       <c r="Y26" t="n">
-        <v>859.3611977507176</v>
+        <v>1210.404967794588</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>181.3937354210034</v>
+        <v>589.3363479614452</v>
       </c>
       <c r="C27" t="n">
-        <v>181.3937354210034</v>
+        <v>414.8833186803182</v>
       </c>
       <c r="D27" t="n">
-        <v>32.45932575975218</v>
+        <v>414.8833186803182</v>
       </c>
       <c r="E27" t="n">
-        <v>32.45932575975218</v>
+        <v>255.6458636748627</v>
       </c>
       <c r="F27" t="n">
-        <v>32.45932575975218</v>
+        <v>109.1113057017477</v>
       </c>
       <c r="G27" t="n">
         <v>32.45932575975218</v>
@@ -6303,22 +6303,22 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J27" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K27" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L27" t="n">
-        <v>358.9399761455072</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M27" t="n">
-        <v>758.3581127497702</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N27" t="n">
-        <v>1057.709031609043</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O27" t="n">
-        <v>1380.722538783602</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P27" t="n">
         <v>1622.966287987609</v>
@@ -6327,28 +6327,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R27" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S27" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T27" t="n">
-        <v>1422.063279093102</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U27" t="n">
-        <v>1193.860611630581</v>
+        <v>1173.163483952</v>
       </c>
       <c r="V27" t="n">
-        <v>958.708503398838</v>
+        <v>1173.163483952</v>
       </c>
       <c r="W27" t="n">
-        <v>704.4711466706365</v>
+        <v>1173.163483952</v>
       </c>
       <c r="X27" t="n">
-        <v>496.6196464651036</v>
+        <v>965.3119837464671</v>
       </c>
       <c r="Y27" t="n">
-        <v>288.8593477001497</v>
+        <v>757.5516849815133</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>194.1667418687505</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="C28" t="n">
-        <v>194.1667418687505</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="D28" t="n">
-        <v>194.1667418687505</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="E28" t="n">
-        <v>194.1667418687505</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="F28" t="n">
-        <v>194.1667418687505</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="G28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K28" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L28" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M28" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N28" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O28" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P28" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q28" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R28" t="n">
-        <v>194.1667418687505</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S28" t="n">
-        <v>194.1667418687505</v>
+        <v>1401.339622460484</v>
       </c>
       <c r="T28" t="n">
-        <v>194.1667418687505</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="U28" t="n">
-        <v>194.1667418687505</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="V28" t="n">
-        <v>194.1667418687505</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="W28" t="n">
-        <v>194.1667418687505</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="X28" t="n">
-        <v>194.1667418687505</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.1667418687505</v>
+        <v>1294.179012144411</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1186.35324867879</v>
+        <v>401.4218427001639</v>
       </c>
       <c r="C29" t="n">
-        <v>1186.35324867879</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D29" t="n">
-        <v>828.0875500720392</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E29" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F29" t="n">
         <v>32.45932575975218</v>
@@ -6455,22 +6455,22 @@
         <v>32.45932575975218</v>
       </c>
       <c r="H29" t="n">
-        <v>32.45932575975204</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I29" t="n">
-        <v>32.45932575975204</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J29" t="n">
-        <v>70.13987180521491</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K29" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L29" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M29" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N29" t="n">
         <v>1148.836227140252</v>
@@ -6485,28 +6485,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R29" t="n">
-        <v>1559.819006939869</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S29" t="n">
-        <v>1559.819006939869</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T29" t="n">
-        <v>1559.819006939869</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U29" t="n">
-        <v>1559.819006939869</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V29" t="n">
-        <v>1559.819006939869</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W29" t="n">
-        <v>1559.819006939869</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="X29" t="n">
-        <v>1186.35324867879</v>
+        <v>896.7318744564152</v>
       </c>
       <c r="Y29" t="n">
-        <v>1186.35324867879</v>
+        <v>506.5925424806035</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>594.4195962804527</v>
+        <v>207.4617876008815</v>
       </c>
       <c r="C30" t="n">
-        <v>419.9665669993257</v>
+        <v>33.00875831975443</v>
       </c>
       <c r="D30" t="n">
-        <v>271.0321573380744</v>
+        <v>33.00875831975443</v>
       </c>
       <c r="E30" t="n">
-        <v>111.7947023326189</v>
+        <v>33.00875831975443</v>
       </c>
       <c r="F30" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G30" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H30" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I30" t="n">
         <v>32.45932575975218</v>
@@ -6543,13 +6543,13 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K30" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L30" t="n">
-        <v>505.948365158507</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M30" t="n">
-        <v>905.36650176277</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N30" t="n">
         <v>1057.709031609043</v>
@@ -6564,28 +6564,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R30" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S30" t="n">
-        <v>1455.464052945775</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T30" t="n">
-        <v>1432.484088999209</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="U30" t="n">
-        <v>1432.484088999209</v>
+        <v>1112.463051531312</v>
       </c>
       <c r="V30" t="n">
-        <v>1432.484088999209</v>
+        <v>877.3109432995698</v>
       </c>
       <c r="W30" t="n">
-        <v>1178.246732271007</v>
+        <v>623.0735865713682</v>
       </c>
       <c r="X30" t="n">
-        <v>970.3952320654746</v>
+        <v>415.2220863658354</v>
       </c>
       <c r="Y30" t="n">
-        <v>762.6349333005207</v>
+        <v>207.4617876008815</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.45932575975218</v>
+        <v>1463.115195072318</v>
       </c>
       <c r="C31" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="D31" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="E31" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="F31" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="G31" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H31" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I31" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J31" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K31" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L31" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M31" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N31" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O31" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P31" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q31" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R31" t="n">
-        <v>361.2466016029501</v>
+        <v>1463.115195072318</v>
       </c>
       <c r="S31" t="n">
-        <v>361.2466016029501</v>
+        <v>1463.115195072318</v>
       </c>
       <c r="T31" t="n">
-        <v>361.2466016029501</v>
+        <v>1463.115195072318</v>
       </c>
       <c r="U31" t="n">
-        <v>361.2466016029501</v>
+        <v>1463.115195072318</v>
       </c>
       <c r="V31" t="n">
-        <v>321.8764957967128</v>
+        <v>1463.115195072318</v>
       </c>
       <c r="W31" t="n">
-        <v>32.45932575975218</v>
+        <v>1463.115195072318</v>
       </c>
       <c r="X31" t="n">
-        <v>32.45932575975218</v>
+        <v>1463.115195072318</v>
       </c>
       <c r="Y31" t="n">
-        <v>32.45932575975218</v>
+        <v>1463.115195072318</v>
       </c>
     </row>
     <row r="32">
@@ -6704,10 +6704,10 @@
         <v>247.3580469011318</v>
       </c>
       <c r="L32" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M32" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N32" t="n">
         <v>1148.836227140252</v>
@@ -6725,25 +6725,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S32" t="n">
-        <v>1622.966287987609</v>
+        <v>1563.511255567272</v>
       </c>
       <c r="T32" t="n">
-        <v>1622.966287987609</v>
+        <v>1340.76733594804</v>
       </c>
       <c r="U32" t="n">
-        <v>1426.565026347366</v>
+        <v>1086.930452880294</v>
       </c>
       <c r="V32" t="n">
-        <v>1095.502139003795</v>
+        <v>755.8675655367231</v>
       </c>
       <c r="W32" t="n">
-        <v>742.7334837336812</v>
+        <v>755.8675655367231</v>
       </c>
       <c r="X32" t="n">
-        <v>369.2677254726013</v>
+        <v>755.8675655367231</v>
       </c>
       <c r="Y32" t="n">
-        <v>369.2677254726013</v>
+        <v>755.8675655367231</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>191.6967807652077</v>
+        <v>293.483807309015</v>
       </c>
       <c r="C33" t="n">
-        <v>191.6967807652077</v>
+        <v>119.030778027888</v>
       </c>
       <c r="D33" t="n">
-        <v>191.6967807652077</v>
+        <v>119.030778027888</v>
       </c>
       <c r="E33" t="n">
-        <v>32.45932575975218</v>
+        <v>119.030778027888</v>
       </c>
       <c r="F33" t="n">
-        <v>32.45932575975218</v>
+        <v>119.030778027888</v>
       </c>
       <c r="G33" t="n">
         <v>32.45932575975218</v>
@@ -6777,22 +6777,22 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J33" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K33" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L33" t="n">
-        <v>358.9399761455072</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M33" t="n">
-        <v>758.3581127497702</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N33" t="n">
-        <v>1057.709031609043</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O33" t="n">
-        <v>1380.722538783602</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P33" t="n">
         <v>1622.966287987609</v>
@@ -6801,28 +6801,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R33" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S33" t="n">
-        <v>1455.464052945775</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T33" t="n">
-        <v>1254.561044051268</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="U33" t="n">
-        <v>1026.358376588747</v>
+        <v>1112.463051531312</v>
       </c>
       <c r="V33" t="n">
-        <v>791.2062683570039</v>
+        <v>877.3109432995698</v>
       </c>
       <c r="W33" t="n">
-        <v>536.9689116288023</v>
+        <v>877.3109432995698</v>
       </c>
       <c r="X33" t="n">
-        <v>329.1174114232695</v>
+        <v>669.4594430940369</v>
       </c>
       <c r="Y33" t="n">
-        <v>191.6967807652077</v>
+        <v>461.699144329083</v>
       </c>
     </row>
     <row r="34">
@@ -6880,25 +6880,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R34" t="n">
-        <v>1515.805677671536</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S34" t="n">
-        <v>1294.179012144411</v>
+        <v>1401.339622460484</v>
       </c>
       <c r="T34" t="n">
-        <v>1294.179012144411</v>
+        <v>1401.339622460484</v>
       </c>
       <c r="U34" t="n">
-        <v>1294.179012144411</v>
+        <v>1401.339622460484</v>
       </c>
       <c r="V34" t="n">
-        <v>1294.179012144411</v>
+        <v>1401.339622460484</v>
       </c>
       <c r="W34" t="n">
-        <v>1294.179012144411</v>
+        <v>1401.339622460484</v>
       </c>
       <c r="X34" t="n">
-        <v>1294.179012144411</v>
+        <v>1401.339622460484</v>
       </c>
       <c r="Y34" t="n">
         <v>1294.179012144411</v>
@@ -6935,16 +6935,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K35" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011315</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528321</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941452</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>838.2361431025477</v>
+        <v>550.462789015344</v>
       </c>
       <c r="C36" t="n">
-        <v>663.7831138214207</v>
+        <v>376.009759734217</v>
       </c>
       <c r="D36" t="n">
-        <v>514.8487041601694</v>
+        <v>227.0753500729658</v>
       </c>
       <c r="E36" t="n">
-        <v>355.6112491547139</v>
+        <v>67.83789506751026</v>
       </c>
       <c r="F36" t="n">
-        <v>281.1652569931186</v>
+        <v>67.83789506751026</v>
       </c>
       <c r="G36" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H36" t="n">
         <v>32.45932575975218</v>
@@ -7017,22 +7017,22 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K36" t="n">
-        <v>61.20822116384403</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L36" t="n">
-        <v>358.9399761455072</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M36" t="n">
-        <v>758.3581127497702</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N36" t="n">
-        <v>1160.042269026703</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O36" t="n">
-        <v>1483.055776201262</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P36" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
@@ -7041,25 +7041,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S36" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T36" t="n">
-        <v>1422.063279093102</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="U36" t="n">
-        <v>1422.063279093102</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="V36" t="n">
-        <v>1422.063279093102</v>
+        <v>1220.311944714032</v>
       </c>
       <c r="W36" t="n">
-        <v>1422.063279093102</v>
+        <v>966.0745879858307</v>
       </c>
       <c r="X36" t="n">
-        <v>1214.21177888757</v>
+        <v>758.2230877802979</v>
       </c>
       <c r="Y36" t="n">
-        <v>1006.451480122616</v>
+        <v>550.462789015344</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>71.82943156598947</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C37" t="n">
-        <v>71.82943156598947</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D37" t="n">
-        <v>71.82943156598947</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E37" t="n">
-        <v>71.82943156598947</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F37" t="n">
         <v>32.45932575975218</v>
@@ -7123,22 +7123,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T37" t="n">
-        <v>361.2466016029501</v>
+        <v>321.6559039998486</v>
       </c>
       <c r="U37" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V37" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W37" t="n">
-        <v>71.82943156598947</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X37" t="n">
-        <v>71.82943156598947</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y37" t="n">
-        <v>71.82943156598947</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>800.5649960805454</v>
+        <v>811.2618144142066</v>
       </c>
       <c r="C38" t="n">
-        <v>800.5649960805454</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="D38" t="n">
         <v>442.2992974737949</v>
@@ -7196,28 +7196,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1539.933491414781</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S38" t="n">
-        <v>1539.933491414781</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T38" t="n">
-        <v>1539.933491414781</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U38" t="n">
-        <v>1539.933491414781</v>
+        <v>1571.327412739408</v>
       </c>
       <c r="V38" t="n">
-        <v>1539.933491414781</v>
+        <v>1571.327412739408</v>
       </c>
       <c r="W38" t="n">
-        <v>1187.164836144667</v>
+        <v>1571.327412739408</v>
       </c>
       <c r="X38" t="n">
-        <v>1187.164836144667</v>
+        <v>1197.861654478328</v>
       </c>
       <c r="Y38" t="n">
-        <v>1187.164836144667</v>
+        <v>1197.861654478328</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>206.9123550408792</v>
+        <v>910.3247089140674</v>
       </c>
       <c r="C39" t="n">
-        <v>32.45932575975218</v>
+        <v>735.8716796329404</v>
       </c>
       <c r="D39" t="n">
-        <v>32.45932575975218</v>
+        <v>586.9372699716891</v>
       </c>
       <c r="E39" t="n">
-        <v>32.45932575975218</v>
+        <v>427.6998149662337</v>
       </c>
       <c r="F39" t="n">
-        <v>32.45932575975218</v>
+        <v>281.1652569931186</v>
       </c>
       <c r="G39" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H39" t="n">
         <v>32.45932575975218</v>
@@ -7251,19 +7251,19 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J39" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K39" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L39" t="n">
-        <v>330.1910807414154</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M39" t="n">
-        <v>729.6092173456783</v>
+        <v>758.3581127497702</v>
       </c>
       <c r="N39" t="n">
-        <v>1057.709031609043</v>
+        <v>1160.042269026703</v>
       </c>
       <c r="O39" t="n">
         <v>1380.722538783602</v>
@@ -7281,22 +7281,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T39" t="n">
-        <v>1422.063279093102</v>
+        <v>1521.452452930832</v>
       </c>
       <c r="U39" t="n">
-        <v>1280.128955991378</v>
+        <v>1521.452452930832</v>
       </c>
       <c r="V39" t="n">
-        <v>1044.976847759636</v>
+        <v>1286.300344699089</v>
       </c>
       <c r="W39" t="n">
-        <v>790.739491031434</v>
+        <v>1286.300344699089</v>
       </c>
       <c r="X39" t="n">
-        <v>582.8879908259012</v>
+        <v>1286.300344699089</v>
       </c>
       <c r="Y39" t="n">
-        <v>375.1276920609472</v>
+        <v>1078.540045934135</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>139.6199360758254</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="C40" t="n">
-        <v>139.6199360758254</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="D40" t="n">
-        <v>139.6199360758254</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="E40" t="n">
-        <v>139.6199360758254</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="F40" t="n">
-        <v>139.6199360758254</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="G40" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H40" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I40" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J40" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K40" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L40" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M40" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N40" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O40" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S40" t="n">
-        <v>139.6199360758254</v>
+        <v>1523.286351224524</v>
       </c>
       <c r="T40" t="n">
-        <v>139.6199360758254</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="U40" t="n">
-        <v>139.6199360758254</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="V40" t="n">
-        <v>139.6199360758254</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="W40" t="n">
-        <v>139.6199360758254</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="X40" t="n">
-        <v>139.6199360758254</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="Y40" t="n">
-        <v>139.6199360758254</v>
+        <v>1294.179012144411</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1232.826956011797</v>
+        <v>846.2271159476757</v>
       </c>
       <c r="C41" t="n">
-        <v>1232.826956011797</v>
+        <v>846.2271159476757</v>
       </c>
       <c r="D41" t="n">
-        <v>1232.826956011797</v>
+        <v>846.2271159476757</v>
       </c>
       <c r="E41" t="n">
-        <v>847.0387034135531</v>
+        <v>460.4388633494314</v>
       </c>
       <c r="F41" t="n">
-        <v>437.1987316995103</v>
+        <v>50.59889163538867</v>
       </c>
       <c r="G41" t="n">
-        <v>32.45932575975218</v>
+        <v>50.59889163538867</v>
       </c>
       <c r="H41" t="n">
-        <v>32.45932575975218</v>
+        <v>50.59889163538867</v>
       </c>
       <c r="I41" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J41" t="n">
-        <v>70.13987180521491</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K41" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L41" t="n">
         <v>519.4894913528324</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>797.8592509657626</v>
+        <v>549.7496870371101</v>
       </c>
       <c r="C42" t="n">
-        <v>623.4062216846356</v>
+        <v>549.7496870371101</v>
       </c>
       <c r="D42" t="n">
-        <v>474.4718120233844</v>
+        <v>549.7496870371101</v>
       </c>
       <c r="E42" t="n">
-        <v>315.2343570179289</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F42" t="n">
-        <v>168.6997990448138</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G42" t="n">
-        <v>111.7947023326189</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H42" t="n">
         <v>111.7947023326189</v>
@@ -7488,22 +7488,22 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J42" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K42" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L42" t="n">
-        <v>534.6972605625989</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M42" t="n">
-        <v>934.1153971668618</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N42" t="n">
-        <v>1299.952780813051</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O42" t="n">
-        <v>1622.966287987609</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P42" t="n">
         <v>1622.966287987609</v>
@@ -7515,25 +7515,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S42" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T42" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U42" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V42" t="n">
-        <v>1220.311944714032</v>
+        <v>1387.814179755866</v>
       </c>
       <c r="W42" t="n">
-        <v>966.0745879858307</v>
+        <v>1133.576823027665</v>
       </c>
       <c r="X42" t="n">
-        <v>966.0745879858307</v>
+        <v>925.7253228221321</v>
       </c>
       <c r="Y42" t="n">
-        <v>966.0745879858307</v>
+        <v>717.9650240571782</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="C43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E43" t="n">
-        <v>213.333508020557</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F43" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G43" t="n">
         <v>32.45932575975218</v>
@@ -7606,13 +7606,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="W43" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="X43" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="Y43" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598947</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>828.0875500720392</v>
+        <v>759.6875413069145</v>
       </c>
       <c r="C44" t="n">
-        <v>828.0875500720392</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="D44" t="n">
-        <v>828.0875500720392</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E44" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F44" t="n">
         <v>32.45932575975218</v>
@@ -7646,16 +7646,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J44" t="n">
-        <v>70.13987180521491</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K44" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M44" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N44" t="n">
         <v>1148.836227140252</v>
@@ -7670,28 +7670,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R44" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S44" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T44" t="n">
-        <v>1622.966287987609</v>
+        <v>1146.287381371036</v>
       </c>
       <c r="U44" t="n">
-        <v>1622.966287987609</v>
+        <v>1146.287381371036</v>
       </c>
       <c r="V44" t="n">
-        <v>1622.966287987609</v>
+        <v>1146.287381371036</v>
       </c>
       <c r="W44" t="n">
-        <v>1622.966287987609</v>
+        <v>1146.287381371036</v>
       </c>
       <c r="X44" t="n">
-        <v>1249.500529726529</v>
+        <v>1146.287381371036</v>
       </c>
       <c r="Y44" t="n">
-        <v>859.3611977507176</v>
+        <v>1146.287381371036</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>496.7108479056826</v>
+        <v>790.2393568559519</v>
       </c>
       <c r="C45" t="n">
-        <v>496.7108479056826</v>
+        <v>615.7863275748249</v>
       </c>
       <c r="D45" t="n">
-        <v>347.7764382444313</v>
+        <v>466.8519179135736</v>
       </c>
       <c r="E45" t="n">
-        <v>188.5389832389758</v>
+        <v>307.6144629081181</v>
       </c>
       <c r="F45" t="n">
-        <v>42.00442526586076</v>
+        <v>161.0799049350031</v>
       </c>
       <c r="G45" t="n">
-        <v>42.00442526586076</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H45" t="n">
         <v>32.45932575975218</v>
@@ -7725,52 +7725,52 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J45" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K45" t="n">
-        <v>32.45932575975218</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L45" t="n">
-        <v>330.1910807414154</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M45" t="n">
-        <v>729.6092173456783</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N45" t="n">
-        <v>1131.293373622612</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O45" t="n">
-        <v>1454.30688079717</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P45" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R45" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S45" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T45" t="n">
-        <v>1422.063279093102</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U45" t="n">
-        <v>1193.860611630581</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="V45" t="n">
-        <v>958.708503398838</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="W45" t="n">
-        <v>704.4711466706365</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="X45" t="n">
-        <v>704.4711466706365</v>
+        <v>1166.214992640974</v>
       </c>
       <c r="Y45" t="n">
-        <v>496.7108479056826</v>
+        <v>958.45469387602</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C46" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D46" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E46" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F46" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G46" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H46" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I46" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J46" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K46" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L46" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M46" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N46" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O46" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P46" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q46" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R46" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S46" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T46" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U46" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V46" t="n">
-        <v>1583.596182181372</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W46" t="n">
-        <v>1294.179012144411</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="X46" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y46" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
   </sheetData>
@@ -8058,19 +8058,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8295,16 +8295,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>197.6503338623806</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,19 +8535,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>233.6791982203443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8775,19 +8775,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>74.46639351210686</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>455.0874215304798</v>
+        <v>418.8785602873039</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831322</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9012,10 +9012,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>184.8055467452004</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>455.0874215304798</v>
+        <v>203.2271928126415</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9240,22 +9240,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L18" t="n">
-        <v>70.10119885733474</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>364.5878977387108</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>209.1955478481123</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,16 +9489,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>455.0874215304797</v>
+        <v>63.84875129258624</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>244.1351504444136</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>86.93262649026376</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>267.4734388209744</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9732,7 +9732,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>244.1351504444137</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>99.73813450275543</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K27" t="n">
         <v>86.93262649026376</v>
@@ -9963,13 +9963,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>351.7205150479949</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444137</v>
       </c>
       <c r="Q27" t="n">
         <v>99.73813450275543</v>
@@ -10191,7 +10191,7 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,7 +10200,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>203.2271928126415</v>
+        <v>380.7598033349564</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K33" t="n">
         <v>86.93262649026376</v>
@@ -10437,13 +10437,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>351.7205150479949</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444137</v>
       </c>
       <c r="Q33" t="n">
         <v>99.73813450275543</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>74.46639351210651</v>
       </c>
       <c r="N36" t="n">
         <v>455.0874215304797</v>
@@ -10680,10 +10680,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>215.0958621574522</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>86.93262649026376</v>
@@ -10911,10 +10911,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>380.7598033349564</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>290.4954127942447</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504503</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,13 +11148,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>418.8785602873039</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>73.77211287831324</v>
+        <v>244.1351504444137</v>
       </c>
       <c r="Q42" t="n">
         <v>99.73813450275543</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11385,16 +11385,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>455.0874215304797</v>
+        <v>63.84875129258624</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>244.1351504444137</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22589,25 +22589,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U2" t="n">
-        <v>149.0074258151476</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22623,22 +22623,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>142.9094900234331</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>72.28847562598898</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22683,13 +22683,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,10 +22747,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22793,19 +22793,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>356.9080190684723</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,22 +22826,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22860,19 +22860,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22914,19 +22914,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>35.7022369148647</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>19.85601043080635</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -23018,16 +23018,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23036,10 +23036,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23063,7 +23063,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23078,16 +23078,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>367.9216046054329</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23100,19 +23100,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>31.31240939209285</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23121,7 +23121,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23148,25 +23148,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>136.2759056302994</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23197,13 +23197,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,13 +23218,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23270,10 +23270,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H11" t="n">
-        <v>280.6312060422306</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23303,22 +23303,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>54.61374593129921</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23343,10 +23343,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -23382,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23397,10 +23397,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>128.010697566596</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>111.6529744195644</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23437,7 +23437,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>198.0222341697041</v>
+        <v>123.3497577082893</v>
       </c>
       <c r="T13" t="n">
         <v>226.8162656893113</v>
@@ -23504,13 +23504,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>1.1344737448091</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.52963679486066</v>
+        <v>70.41439893299199</v>
       </c>
       <c r="T14" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23571,28 +23571,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>150.2198559240991</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,25 +23619,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>116.8429368463966</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>61.15781688571531</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23668,13 +23668,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H16" t="n">
-        <v>56.55224943852487</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>226.8162656893113</v>
@@ -23738,19 +23738,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>65.10762352190619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
-        <v>187.7594695105699</v>
+        <v>24.03610535377467</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23786,16 +23786,16 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23808,25 +23808,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>162.4944752316792</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23856,28 +23856,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>51.83819362746152</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,10 +23899,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.7266695472104</v>
+        <v>154.8951355840036</v>
       </c>
       <c r="H19" t="n">
         <v>159.8772180037952</v>
@@ -23932,7 +23932,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R19" t="n">
         <v>165.4090611368575</v>
@@ -23944,7 +23944,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
-        <v>24.8349101572739</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23966,19 +23966,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G20" t="n">
         <v>414.7135041305339</v>
@@ -24020,22 +24020,22 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
-        <v>134.842301528686</v>
+        <v>98.38048768038058</v>
       </c>
       <c r="U20" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>59.5311411295658</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24099,10 +24099,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
-        <v>165.2832744570134</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24111,7 +24111,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24172,19 +24172,19 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R22" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
-        <v>226.8162656893113</v>
+        <v>66.72592374140291</v>
       </c>
       <c r="U22" t="n">
         <v>286.3046124576955</v>
       </c>
       <c r="V22" t="n">
-        <v>106.4702204209994</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24206,22 +24206,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H23" t="n">
-        <v>244.7971959191291</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I23" t="n">
         <v>187.7594695105699</v>
@@ -24257,19 +24257,19 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5164804230398</v>
+        <v>130.5347329448942</v>
       </c>
       <c r="U23" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,19 +24282,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>103.869113440255</v>
       </c>
       <c r="G24" t="n">
         <v>137.0282495084215</v>
@@ -24333,13 +24333,13 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
-        <v>43.45079160857729</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>128.2704163504529</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24415,16 +24415,16 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T25" t="n">
-        <v>226.8162656893113</v>
+        <v>187.621475062241</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,22 +24440,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>284.0569217841154</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G26" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H26" t="n">
         <v>333.4403157157206</v>
@@ -24488,13 +24488,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>220.5164804230398</v>
+        <v>120.5293736122932</v>
       </c>
       <c r="U26" t="n">
         <v>251.2985142370684</v>
@@ -24506,10 +24506,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,22 +24519,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>60.14222749351252</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0282495084215</v>
+        <v>61.1427893658459</v>
       </c>
       <c r="H27" t="n">
         <v>109.1906224126114</v>
@@ -24567,22 +24567,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>7.636327599302035</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H28" t="n">
         <v>159.8772180037952</v>
@@ -24646,13 +24646,13 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S28" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>226.8162656893113</v>
+        <v>120.7272614763991</v>
       </c>
       <c r="U28" t="n">
         <v>286.3046124576955</v>
@@ -24677,19 +24677,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>278.6148488808454</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>414.7135041305339</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>50.33987810843522</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
         <v>195.5929138346465</v>
@@ -24740,13 +24740,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24756,19 +24756,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>144.5252741589817</v>
       </c>
       <c r="G30" t="n">
         <v>137.0282495084215</v>
@@ -24777,7 +24777,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,19 +24804,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>176.1438144984614</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24883,7 +24883,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R31" t="n">
-        <v>165.4090611368575</v>
+        <v>7.156479150719662</v>
       </c>
       <c r="S31" t="n">
         <v>219.4103988718534</v>
@@ -24895,10 +24895,10 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V31" t="n">
-        <v>213.1612385756531</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24965,22 +24965,22 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
-        <v>195.5929138346465</v>
+        <v>136.7324317385125</v>
       </c>
       <c r="T32" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>56.86126521322751</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,22 +24993,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0282495084215</v>
+        <v>51.32251176296701</v>
       </c>
       <c r="H33" t="n">
         <v>109.1906224126114</v>
@@ -25041,10 +25041,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25056,13 +25056,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>69.6362714258232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25120,7 +25120,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R34" t="n">
-        <v>59.3200569239453</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>112.4956491391826</v>
       </c>
     </row>
     <row r="35">
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25242,13 +25242,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>71.36768015340458</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>102.003465893741</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
         <v>78.54202280713804</v>
@@ -25281,19 +25281,19 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>106.4446432747563</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.7266695472104</v>
@@ -25363,16 +25363,16 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T37" t="n">
-        <v>226.8162656893113</v>
+        <v>187.6214750622408</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25391,10 +25391,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>30.65321773859782</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
         <v>195.5929138346465</v>
@@ -25445,16 +25445,16 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2985142370684</v>
+        <v>200.1760277413494</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25473,19 +25473,19 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>78.54202280713804</v>
@@ -25521,19 +25521,19 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>98.39528209935222</v>
       </c>
       <c r="U39" t="n">
-        <v>85.40566091718964</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>61.63766533429788</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H40" t="n">
         <v>159.8772180037952</v>
@@ -25597,10 +25597,10 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>120.7272614763991</v>
       </c>
       <c r="T40" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.3046124576955</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25640,13 +25640,13 @@
         <v>1.134473744809156</v>
       </c>
       <c r="G41" t="n">
-        <v>14.02149225017337</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H41" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I41" t="n">
-        <v>187.7594695105699</v>
+        <v>169.8012992936898</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25707,22 +25707,22 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>115.3577299123714</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>80.69220376334847</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25755,7 +25755,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
         <v>198.8939788055617</v>
@@ -25770,10 +25770,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25786,19 +25786,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>128.2704163504529</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>134.0822771319449</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H43" t="n">
         <v>159.8772180037952</v>
@@ -25846,7 +25846,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,19 +25862,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>351.772930461589</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>414.7135041305339</v>
@@ -25910,13 +25910,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>220.5164804230398</v>
+        <v>57.05296305297676</v>
       </c>
       <c r="U44" t="n">
         <v>251.2985142370684</v>
@@ -25928,10 +25928,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,10 +25941,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -25956,10 +25956,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>118.8844985375344</v>
       </c>
       <c r="H45" t="n">
-        <v>99.74097390156388</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>78.54202280713804</v>
@@ -25989,25 +25989,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26080,13 +26080,13 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V46" t="n">
-        <v>213.1612385756534</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>186.7332506408623</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>448752.9057247414</v>
+        <v>448752.9057247415</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>572523.3088963215</v>
+        <v>572523.3088963213</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>572523.3088963215</v>
+        <v>572523.3088963213</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>572523.3088963212</v>
+        <v>572523.3088963215</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>572523.3088963209</v>
+        <v>572523.3088963211</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>572523.3088963215</v>
+        <v>572523.3088963213</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>572523.3088963209</v>
+        <v>572523.3088963213</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>572523.3088963215</v>
+        <v>572523.3088963212</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>572523.308896321</v>
+        <v>572523.3088963212</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>572523.3088963215</v>
+        <v>572523.3088963212</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>572523.3088963215</v>
+        <v>572523.308896321</v>
       </c>
     </row>
     <row r="16">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149544.6052781991</v>
+        <v>149544.6052781992</v>
       </c>
       <c r="C2" t="n">
         <v>149544.6052781992</v>
       </c>
       <c r="D2" t="n">
-        <v>149544.6052781992</v>
+        <v>149544.6052781991</v>
       </c>
       <c r="E2" t="n">
-        <v>192266.0073581458</v>
+        <v>192266.0073581459</v>
       </c>
       <c r="F2" t="n">
-        <v>192266.0073581458</v>
+        <v>192266.0073581457</v>
       </c>
       <c r="G2" t="n">
         <v>192266.0073581458</v>
@@ -26335,7 +26335,7 @@
         <v>192266.0073581458</v>
       </c>
       <c r="J2" t="n">
-        <v>192266.0073581458</v>
+        <v>192266.0073581457</v>
       </c>
       <c r="K2" t="n">
         <v>192266.0073581458</v>
@@ -26350,7 +26350,7 @@
         <v>192266.0073581458</v>
       </c>
       <c r="O2" t="n">
-        <v>192266.0073581457</v>
+        <v>192266.0073581458</v>
       </c>
       <c r="P2" t="n">
         <v>192266.0073581458</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.69786244792</v>
+        <v>41050.69786244791</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
-        <v>20314.86901713245</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="F4" t="n">
-        <v>20314.86901713245</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="G4" t="n">
-        <v>20314.86901713245</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="H4" t="n">
-        <v>20314.86901713245</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="I4" t="n">
-        <v>20314.86901713244</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="J4" t="n">
-        <v>20314.86901713245</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="K4" t="n">
-        <v>20314.86901713245</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="L4" t="n">
-        <v>20314.86901713245</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="M4" t="n">
-        <v>20314.86901713244</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="N4" t="n">
-        <v>20314.86901713245</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="O4" t="n">
-        <v>20314.86901713245</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="P4" t="n">
-        <v>20314.86901713244</v>
+        <v>17394.13523139261</v>
       </c>
     </row>
     <row r="5">
@@ -26479,13 +26479,13 @@
         <v>27864.35291375757</v>
       </c>
       <c r="F5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="G5" t="n">
         <v>27864.35291375756</v>
       </c>
       <c r="H5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="I5" t="n">
         <v>27864.35291375756</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>718.8200974567226</v>
+        <v>3579.215341908945</v>
       </c>
       <c r="C6" t="n">
-        <v>81488.25162900452</v>
+        <v>84348.64687345666</v>
       </c>
       <c r="D6" t="n">
-        <v>81488.25162900458</v>
+        <v>84348.64687345663</v>
       </c>
       <c r="E6" t="n">
-        <v>-22853.38469799101</v>
+        <v>-19932.65091225105</v>
       </c>
       <c r="F6" t="n">
-        <v>144086.7854272558</v>
+        <v>147007.5192129956</v>
       </c>
       <c r="G6" t="n">
-        <v>144086.7854272558</v>
+        <v>147007.5192129957</v>
       </c>
       <c r="H6" t="n">
-        <v>144086.7854272558</v>
+        <v>147007.5192129957</v>
       </c>
       <c r="I6" t="n">
-        <v>144086.7854272558</v>
+        <v>147007.5192129957</v>
       </c>
       <c r="J6" t="n">
-        <v>81026.84282814957</v>
+        <v>83947.57661388929</v>
       </c>
       <c r="K6" t="n">
-        <v>144086.7854272558</v>
+        <v>147007.5192129956</v>
       </c>
       <c r="L6" t="n">
-        <v>144086.7854272558</v>
+        <v>147007.5192129956</v>
       </c>
       <c r="M6" t="n">
-        <v>103036.0875648079</v>
+        <v>105956.8213505478</v>
       </c>
       <c r="N6" t="n">
-        <v>144086.7854272558</v>
+        <v>147007.5192129956</v>
       </c>
       <c r="O6" t="n">
-        <v>144086.7854272557</v>
+        <v>147007.5192129956</v>
       </c>
       <c r="P6" t="n">
-        <v>144086.7854272558</v>
+        <v>147007.5192129957</v>
       </c>
     </row>
   </sheetData>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>164.7272831192434</v>
+        <v>164.7272831192433</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H11" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I11" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J11" t="n">
-        <v>50.01044697629219</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K11" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L11" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M11" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N11" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O11" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P11" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R11" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S11" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T11" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H12" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I12" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K12" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L12" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M12" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N12" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O12" t="n">
-        <v>75.01019504100589</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P12" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.24363958326609</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R12" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S12" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T12" t="n">
         <v>1.270749889259948</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H13" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I13" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J13" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K13" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L13" t="n">
         <v>39.29566048323129</v>
@@ -31932,7 +31932,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O13" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P13" t="n">
         <v>31.96707026225442</v>
@@ -31941,16 +31941,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R13" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S13" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T13" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I20" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J20" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L20" t="n">
-        <v>92.98544734044661</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M20" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N20" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S20" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T20" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,43 +32540,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H21" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I21" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J21" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K21" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M21" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O21" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R21" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T21" t="n">
         <v>1.270749889259948</v>
@@ -32619,19 +32619,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H22" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I22" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J22" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K22" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L22" t="n">
         <v>39.29566048323129</v>
@@ -32643,7 +32643,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O22" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P22" t="n">
         <v>31.96707026225442</v>
@@ -32652,16 +32652,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R22" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S22" t="n">
-        <v>4.606199165118891</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T22" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34778,19 +34778,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35015,16 +35015,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35033,7 +35033,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,19 +35255,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K11" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L11" t="n">
         <v>274.8802469209098</v>
@@ -35428,7 +35428,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>29.03928828696146</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K12" t="n">
-        <v>177.5326105223148</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L12" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M12" t="n">
-        <v>12.2139929987362</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N12" t="n">
-        <v>405.7415719969023</v>
+        <v>369.5327107537265</v>
       </c>
       <c r="O12" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P12" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,22 +35568,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L13" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M13" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N13" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O13" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P13" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>177.5326105223148</v>
@@ -35732,10 +35732,10 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
-        <v>122.5531462318298</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N15" t="n">
-        <v>405.7415719969023</v>
+        <v>153.8813432790641</v>
       </c>
       <c r="O15" t="n">
         <v>326.276269873291</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M18" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N18" t="n">
-        <v>315.2420482051334</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O18" t="n">
-        <v>326.276269873291</v>
+        <v>141.6094984446738</v>
       </c>
       <c r="P18" t="n">
         <v>244.6906557616239</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K20" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L20" t="n">
         <v>274.8802469209098</v>
@@ -36139,7 +36139,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L21" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M21" t="n">
-        <v>403.4526632366293</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N21" t="n">
-        <v>405.7415719969023</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O21" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P21" t="n">
-        <v>170.3630375661004</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L22" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M22" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N22" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O22" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P22" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>300.7391464461244</v>
+        <v>197.3722399636397</v>
       </c>
       <c r="M24" t="n">
         <v>403.4526632366292</v>
@@ -36452,7 +36452,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P24" t="n">
-        <v>170.3630375661004</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36683,13 +36683,13 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N27" t="n">
-        <v>302.3746655144175</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O27" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P27" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>300.7391464461244</v>
@@ -36920,7 +36920,7 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N30" t="n">
-        <v>153.8813432790641</v>
+        <v>331.413953801379</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37157,13 +37157,13 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N33" t="n">
-        <v>302.3746655144175</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O33" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P33" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L36" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M36" t="n">
-        <v>403.4526632366292</v>
+        <v>12.21399299873585</v>
       </c>
       <c r="N36" t="n">
         <v>405.7415719969023</v>
@@ -37400,10 +37400,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
-        <v>141.323749279139</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37631,10 +37631,10 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N39" t="n">
-        <v>331.413953801379</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O39" t="n">
-        <v>326.276269873291</v>
+        <v>222.9093633908061</v>
       </c>
       <c r="P39" t="n">
         <v>244.6906557616239</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>38.06115762167952</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K41" t="n">
         <v>179.0082576726432</v>
       </c>
       <c r="L41" t="n">
-        <v>274.8802469209098</v>
+        <v>274.8802469209097</v>
       </c>
       <c r="M41" t="n">
         <v>322.6315268094071</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>300.7391464461244</v>
@@ -37868,13 +37868,13 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N42" t="n">
-        <v>369.5327107537265</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O42" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>38.06115762167952</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K44" t="n">
         <v>179.0082576726432</v>
@@ -38035,7 +38035,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680312</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L45" t="n">
         <v>300.7391464461244</v>
@@ -38105,16 +38105,16 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N45" t="n">
-        <v>405.7415719969023</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O45" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P45" t="n">
-        <v>170.3630375661004</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
